--- a/Src/Data/Tables/ItemDefine.xlsx
+++ b/Src/Data/Tables/ItemDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
   <si>
     <t>名字</t>
   </si>
@@ -50,6 +50,12 @@
     <t>购买价格</t>
   </si>
   <si>
+    <t>堆叠限制</t>
+  </si>
+  <si>
+    <t>图标</t>
+  </si>
+  <si>
     <t>销售价格</t>
   </si>
   <si>
@@ -101,6 +107,12 @@
     <t>Prise</t>
   </si>
   <si>
+    <t>StackLimit</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
     <t>SellPrise</t>
   </si>
   <si>
@@ -125,6 +137,9 @@
     <t>药水</t>
   </si>
   <si>
+    <t>UI/Items/hongp</t>
+  </si>
+  <si>
     <t>RecoverHP</t>
   </si>
   <si>
@@ -134,6 +149,9 @@
     <t>使用立即回复100法力值（战斗回复）</t>
   </si>
   <si>
+    <t>UI/Items/lanp</t>
+  </si>
+  <si>
     <t>RecoverMP</t>
   </si>
   <si>
@@ -146,6 +164,9 @@
     <t>食物</t>
   </si>
   <si>
+    <t>UI/Items/mbao</t>
+  </si>
+  <si>
     <t>AddBuff</t>
   </si>
   <si>
@@ -155,6 +176,9 @@
     <t>使用后5秒内回复1000点法力值（非战斗状态）</t>
   </si>
   <si>
+    <t>UI/Items/haixiant</t>
+  </si>
+  <si>
     <t>小型经验书</t>
   </si>
   <si>
@@ -164,6 +188,9 @@
     <t>经验书</t>
   </si>
   <si>
+    <t>UI/Items/jinengsh</t>
+  </si>
+  <si>
     <t>AddExp</t>
   </si>
   <si>
@@ -179,12 +206,18 @@
     <t>徽章</t>
   </si>
   <si>
+    <t>UI/Items/huizhang</t>
+  </si>
+  <si>
     <t>钱袋</t>
   </si>
   <si>
     <t>使用获得1000枚金币</t>
   </si>
   <si>
+    <t>UI/Items/xiaoqiandai</t>
+  </si>
+  <si>
     <t>AddMoney</t>
   </si>
   <si>
@@ -194,6 +227,9 @@
     <t>使用获得10000枚金币</t>
   </si>
   <si>
+    <t>UI/Items/daqiandai</t>
+  </si>
+  <si>
     <t>10级装备盒</t>
   </si>
   <si>
@@ -203,6 +239,9 @@
     <t>装备盒</t>
   </si>
   <si>
+    <t>UI/Items/baoxiang</t>
+  </si>
+  <si>
     <t>AddItem</t>
   </si>
   <si>
@@ -210,6 +249,9 @@
   </si>
   <si>
     <t>使用获得1点技能点</t>
+  </si>
+  <si>
+    <t>UI/Items/jinengshu</t>
   </si>
   <si>
     <t>AddSkillPoint</t>
@@ -930,7 +972,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -952,18 +994,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1033,7 +1063,7 @@
     <cellStyle name="好 2" xfId="59"/>
     <cellStyle name="适中 2" xfId="60"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="13">
     <dxf>
       <fill>
         <patternFill patternType="none"/>
@@ -1125,6 +1155,96 @@
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1136,9 +1256,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:M13" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:M13" etc:filterBottomFollowUsedRange="0"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:N13" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:N13" etc:filterBottomFollowUsedRange="0"/>
+  <tableColumns count="14">
     <tableColumn id="1" name="Key" dataDxfId="0"/>
     <tableColumn id="3" name="ID" dataDxfId="1"/>
     <tableColumn id="5" name="Name" dataDxfId="2"/>
@@ -1146,12 +1266,13 @@
     <tableColumn id="4" name="Type" dataDxfId="4"/>
     <tableColumn id="6" name="Category" dataDxfId="5"/>
     <tableColumn id="98" name="CanUes" dataDxfId="6"/>
-    <tableColumn id="7" name="UseCD"/>
-    <tableColumn id="8" name="Prise"/>
-    <tableColumn id="9" name="SellPrise"/>
-    <tableColumn id="10" name="Function"/>
-    <tableColumn id="11" name="Param"/>
-    <tableColumn id="12" name="Params"/>
+    <tableColumn id="7" name="UseCD" dataDxfId="7"/>
+    <tableColumn id="8" name="Prise" dataDxfId="8"/>
+    <tableColumn id="9" name="StackLimit" dataDxfId="9"/>
+    <tableColumn id="10" name="Icon" dataDxfId="10"/>
+    <tableColumn id="11" name="SellPrise" dataDxfId="11"/>
+    <tableColumn id="12" name="Function" dataDxfId="12"/>
+    <tableColumn id="13" name="Param"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1444,10 +1565,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.287037037037" defaultRowHeight="14.4"/>
@@ -1458,10 +1579,12 @@
     <col min="5" max="5" width="19.8518518518519" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.7777777777778" customWidth="1"/>
     <col min="7" max="7" width="17.5555555555556" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="16.287037037037" style="4"/>
+    <col min="8" max="10" width="16.287037037037" style="4"/>
+    <col min="11" max="11" width="20.2222222222222" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="16.287037037037" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4" t="s">
@@ -1494,87 +1617,105 @@
       <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="M1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="2:13">
+    <row r="2" spans="2:15">
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="L2" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:15">
       <c r="A3" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.2" spans="1:12">
+    <row r="4" s="1" customFormat="1" ht="13.2" spans="1:14">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1582,16 +1723,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1" t="b">
         <v>1</v>
@@ -1603,16 +1744,22 @@
         <v>200</v>
       </c>
       <c r="J4" s="1">
+        <v>99</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="1">
         <v>100</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="13.2" spans="1:12">
+    <row r="5" s="1" customFormat="1" ht="13.2" spans="1:14">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1620,16 +1767,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G5" s="1" t="b">
         <v>1</v>
@@ -1641,16 +1788,22 @@
         <v>200</v>
       </c>
       <c r="J5" s="1">
+        <v>99</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="1">
         <v>100</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="13.2" spans="1:12">
+    <row r="6" s="1" customFormat="1" ht="13.2" spans="1:14">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1658,16 +1811,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="b">
         <v>1</v>
@@ -1679,16 +1832,22 @@
         <v>200</v>
       </c>
       <c r="J6" s="1">
+        <v>99</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="1">
         <v>100</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="13.2" spans="1:12">
+    <row r="7" s="1" customFormat="1" ht="13.2" spans="1:14">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1696,16 +1855,16 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G7" s="1" t="b">
         <v>1</v>
@@ -1717,33 +1876,39 @@
         <v>200</v>
       </c>
       <c r="J7" s="1">
+        <v>99</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="1">
         <v>100</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="13.2" spans="1:11">
+    <row r="8" s="1" customFormat="1" ht="13.2" spans="1:13">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>43</v>
+      <c r="C8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G8" s="1" t="b">
         <v>1</v>
@@ -1752,57 +1917,69 @@
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="13.2" spans="1:10">
+    <row r="9" s="1" customFormat="1" ht="13.2" spans="1:12">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="1">
         <v>6</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>47</v>
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
+        <v>500</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="1">
         <v>7</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>51</v>
+      <c r="C10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>50</v>
+        <v>34</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="G10" s="1" t="b">
         <v>1</v>
@@ -1811,33 +1988,39 @@
         <v>0</v>
       </c>
       <c r="J10" s="4">
-        <v>1</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>52</v>
+        <v>10</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="L10" s="4">
+        <v>1</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N10" s="4">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="1">
         <v>8</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>54</v>
+      <c r="C11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>50</v>
+        <v>34</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="G11" s="1" t="b">
         <v>1</v>
@@ -1846,33 +2029,39 @@
         <v>0</v>
       </c>
       <c r="J11" s="4">
-        <v>1</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>52</v>
+        <v>10</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="L11" s="4">
+        <v>1</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N11" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="1">
         <v>9</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>56</v>
+      <c r="C12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>57</v>
+        <v>34</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="G12" s="1" t="b">
         <v>1</v>
@@ -1883,28 +2072,34 @@
       <c r="J12" s="4">
         <v>1</v>
       </c>
-      <c r="K12" s="4" t="s">
-        <v>58</v>
+      <c r="K12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L12" s="4">
+        <v>1</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13" s="1">
         <v>10</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>60</v>
+      <c r="C13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>59</v>
+        <v>34</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="G13" s="1" t="b">
         <v>1</v>
@@ -1915,10 +2110,16 @@
       <c r="J13" s="4">
         <v>1</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>61</v>
+      <c r="K13" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="L13" s="4">
+        <v>1</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N13" s="4">
         <v>1</v>
       </c>
     </row>

--- a/Src/Data/Tables/ItemDefine.xlsx
+++ b/Src/Data/Tables/ItemDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="181">
   <si>
     <t>名字</t>
   </si>
@@ -41,6 +41,12 @@
     <t>类别</t>
   </si>
   <si>
+    <t>道具等级</t>
+  </si>
+  <si>
+    <t>限制职业</t>
+  </si>
+  <si>
     <t>能否使用</t>
   </si>
   <si>
@@ -98,6 +104,12 @@
     <t>Category</t>
   </si>
   <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>LimitClass</t>
+  </si>
+  <si>
     <t>CanUes</t>
   </si>
   <si>
@@ -122,7 +134,7 @@
     <t>Param</t>
   </si>
   <si>
-    <t>Params</t>
+    <t>列1</t>
   </si>
   <si>
     <t>小型治疗药水</t>
@@ -255,6 +267,309 @@
   </si>
   <si>
     <t>AddSkillPoint</t>
+  </si>
+  <si>
+    <t>铁剑</t>
+  </si>
+  <si>
+    <t>"上等精铁铸成，锋利无比"</t>
+  </si>
+  <si>
+    <t>EQUIP</t>
+  </si>
+  <si>
+    <t>武器</t>
+  </si>
+  <si>
+    <t>WARRIOR</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1001</t>
+  </si>
+  <si>
+    <t>铁盾</t>
+  </si>
+  <si>
+    <t>"上等精铁铸成"</t>
+  </si>
+  <si>
+    <t>配件</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1002</t>
+  </si>
+  <si>
+    <t>铁头盔</t>
+  </si>
+  <si>
+    <t>防具</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1003</t>
+  </si>
+  <si>
+    <t>铁胸甲</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1004</t>
+  </si>
+  <si>
+    <t>铁肩</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1005</t>
+  </si>
+  <si>
+    <t>铁裤</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1006</t>
+  </si>
+  <si>
+    <t>铁靴</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1007</t>
+  </si>
+  <si>
+    <t>桃木法杖</t>
+  </si>
+  <si>
+    <t>"百年桃木制成"</t>
+  </si>
+  <si>
+    <t>WIZARD</t>
+  </si>
+  <si>
+    <t>UI/Items/equip/2001</t>
+  </si>
+  <si>
+    <t>牛皮法典</t>
+  </si>
+  <si>
+    <t>"最健壮的牛皮所制"</t>
+  </si>
+  <si>
+    <t>UI/Items/equip/2002</t>
+  </si>
+  <si>
+    <t>布巾</t>
+  </si>
+  <si>
+    <t>"采用上等布料，上等工艺"</t>
+  </si>
+  <si>
+    <t>UI/Items/equip/2003</t>
+  </si>
+  <si>
+    <t>布衣</t>
+  </si>
+  <si>
+    <t>UI/Items/equip/2004</t>
+  </si>
+  <si>
+    <t>布肩</t>
+  </si>
+  <si>
+    <t>UI/Items/equip/2005</t>
+  </si>
+  <si>
+    <t>布裤</t>
+  </si>
+  <si>
+    <t>UI/Items/equip/2006</t>
+  </si>
+  <si>
+    <t>布靴</t>
+  </si>
+  <si>
+    <t>UI/Items/equip/2007</t>
+  </si>
+  <si>
+    <t>木弓</t>
+  </si>
+  <si>
+    <t>"韧性十足"</t>
+  </si>
+  <si>
+    <t>ARCHER</t>
+  </si>
+  <si>
+    <t>UI/Items/equip/3001</t>
+  </si>
+  <si>
+    <t>皮箭袋</t>
+  </si>
+  <si>
+    <t>"顶级野兽皮革所制"</t>
+  </si>
+  <si>
+    <t>UI/Items/equip/3002</t>
+  </si>
+  <si>
+    <t>皮帽</t>
+  </si>
+  <si>
+    <t>UI/Items/equip/3003</t>
+  </si>
+  <si>
+    <t>皮衣</t>
+  </si>
+  <si>
+    <t>UI/Items/equip/3004</t>
+  </si>
+  <si>
+    <t>皮肩</t>
+  </si>
+  <si>
+    <t>UI/Items/equip/3005</t>
+  </si>
+  <si>
+    <t>皮裤</t>
+  </si>
+  <si>
+    <t>UI/Items/equip/3006</t>
+  </si>
+  <si>
+    <t>皮靴</t>
+  </si>
+  <si>
+    <t>UI/Items/equip/3007</t>
+  </si>
+  <si>
+    <t>星辰之剑</t>
+  </si>
+  <si>
+    <t>"星辰之力，孕育其中"</t>
+  </si>
+  <si>
+    <t>UI/Items/equip/1011</t>
+  </si>
+  <si>
+    <t>星辰护盾</t>
+  </si>
+  <si>
+    <t>UI/Items/equip/1012</t>
+  </si>
+  <si>
+    <t>星辰头盔</t>
+  </si>
+  <si>
+    <t>UI/Items/equip/1013</t>
+  </si>
+  <si>
+    <t>星辰胸甲</t>
+  </si>
+  <si>
+    <t>UI/Items/equip/1014</t>
+  </si>
+  <si>
+    <t>星辰肩甲</t>
+  </si>
+  <si>
+    <t>UI/Items/equip/1015</t>
+  </si>
+  <si>
+    <t>星辰腿甲</t>
+  </si>
+  <si>
+    <t>UI/Items/equip/1016</t>
+  </si>
+  <si>
+    <t>星辰靴子</t>
+  </si>
+  <si>
+    <t>UI/Items/equip/1017</t>
+  </si>
+  <si>
+    <t>逐日法杖</t>
+  </si>
+  <si>
+    <t>"拥有太阳的力量"</t>
+  </si>
+  <si>
+    <t>UI/Items/equip/2011</t>
+  </si>
+  <si>
+    <t>逐日法典</t>
+  </si>
+  <si>
+    <t>UI/Items/equip/2012</t>
+  </si>
+  <si>
+    <t>逐日头盔</t>
+  </si>
+  <si>
+    <t>UI/Items/equip/2013</t>
+  </si>
+  <si>
+    <t>逐日胸甲</t>
+  </si>
+  <si>
+    <t>UI/Items/equip/2014</t>
+  </si>
+  <si>
+    <t>逐日肩甲</t>
+  </si>
+  <si>
+    <t>UI/Items/equip/2015</t>
+  </si>
+  <si>
+    <t>逐日腿甲</t>
+  </si>
+  <si>
+    <t>UI/Items/equip/2016</t>
+  </si>
+  <si>
+    <t>逐日靴子</t>
+  </si>
+  <si>
+    <t>UI/Items/equip/2017</t>
+  </si>
+  <si>
+    <t>伴月长弓</t>
+  </si>
+  <si>
+    <t>"月亮女神赐予"</t>
+  </si>
+  <si>
+    <t>UI/Items/equip/3011</t>
+  </si>
+  <si>
+    <t>伴月箭袋</t>
+  </si>
+  <si>
+    <t>UI/Items/equip/3012</t>
+  </si>
+  <si>
+    <t>伴月头盔</t>
+  </si>
+  <si>
+    <t>UI/Items/equip/3013</t>
+  </si>
+  <si>
+    <t>伴月胸甲</t>
+  </si>
+  <si>
+    <t>UI/Items/equip/3014</t>
+  </si>
+  <si>
+    <t>伴月肩甲</t>
+  </si>
+  <si>
+    <t>UI/Items/equip/3015</t>
+  </si>
+  <si>
+    <t>伴月腿甲</t>
+  </si>
+  <si>
+    <t>UI/Items/equip/3016</t>
+  </si>
+  <si>
+    <t>伴月靴子</t>
+  </si>
+  <si>
+    <t>UI/Items/equip/3017</t>
   </si>
 </sst>
 </file>
@@ -972,7 +1287,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -980,7 +1295,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -993,10 +1313,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1063,14 +1398,24 @@
     <cellStyle name="好 2" xfId="59"/>
     <cellStyle name="适中 2" xfId="60"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
     <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <sz val="9"/>
+      </font>
       <fill>
         <patternFill patternType="none"/>
       </fill>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <sz val="9"/>
+      </font>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -1112,7 +1457,7 @@
     </dxf>
     <dxf>
       <font>
-        <name val="Calibri"/>
+        <name val="微软雅黑"/>
         <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
@@ -1120,14 +1465,14 @@
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="11"/>
+        <sz val="9"/>
         <color auto="1"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
-        <name val="Calibri"/>
+        <name val="微软雅黑"/>
         <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
@@ -1135,14 +1480,14 @@
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="11"/>
+        <sz val="9"/>
         <color auto="1"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
-        <name val="Calibri"/>
+        <name val="微软雅黑"/>
         <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
@@ -1150,14 +1495,14 @@
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="11"/>
+        <sz val="9"/>
         <color auto="1"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
-        <name val="Calibri"/>
+        <name val="微软雅黑"/>
         <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
@@ -1165,14 +1510,14 @@
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="11"/>
+        <sz val="9"/>
         <color auto="1"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
-        <name val="Calibri"/>
+        <name val="微软雅黑"/>
         <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
@@ -1180,14 +1525,14 @@
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="11"/>
+        <sz val="9"/>
         <color auto="1"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
-        <name val="Calibri"/>
+        <name val="微软雅黑"/>
         <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
@@ -1195,14 +1540,14 @@
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="11"/>
+        <sz val="9"/>
         <color auto="1"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
-        <name val="Calibri"/>
+        <name val="微软雅黑"/>
         <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
@@ -1210,14 +1555,14 @@
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="11"/>
+        <sz val="9"/>
         <color auto="1"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
-        <name val="Calibri"/>
+        <name val="微软雅黑"/>
         <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
@@ -1225,14 +1570,14 @@
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="11"/>
+        <sz val="9"/>
         <color auto="1"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
-        <name val="Calibri"/>
+        <name val="微软雅黑"/>
         <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
@@ -1240,7 +1585,22 @@
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="11"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
         <color auto="1"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1256,23 +1616,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:N13" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:N13" etc:filterBottomFollowUsedRange="0"/>
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:Q55" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:Q55" etc:filterBottomFollowUsedRange="0"/>
+  <tableColumns count="17">
     <tableColumn id="1" name="Key" dataDxfId="0"/>
     <tableColumn id="3" name="ID" dataDxfId="1"/>
     <tableColumn id="5" name="Name" dataDxfId="2"/>
     <tableColumn id="2" name="Description" dataDxfId="3"/>
     <tableColumn id="4" name="Type" dataDxfId="4"/>
     <tableColumn id="6" name="Category" dataDxfId="5"/>
-    <tableColumn id="98" name="CanUes" dataDxfId="6"/>
-    <tableColumn id="7" name="UseCD" dataDxfId="7"/>
-    <tableColumn id="8" name="Prise" dataDxfId="8"/>
-    <tableColumn id="9" name="StackLimit" dataDxfId="9"/>
-    <tableColumn id="10" name="Icon" dataDxfId="10"/>
-    <tableColumn id="11" name="SellPrise" dataDxfId="11"/>
-    <tableColumn id="12" name="Function" dataDxfId="12"/>
-    <tableColumn id="13" name="Param"/>
+    <tableColumn id="98" name="Level" dataDxfId="6"/>
+    <tableColumn id="7" name="LimitClass" dataDxfId="7"/>
+    <tableColumn id="8" name="CanUes" dataDxfId="8"/>
+    <tableColumn id="9" name="UseCD" dataDxfId="9"/>
+    <tableColumn id="10" name="Prise" dataDxfId="10"/>
+    <tableColumn id="11" name="StackLimit" dataDxfId="11"/>
+    <tableColumn id="12" name="Icon" dataDxfId="12"/>
+    <tableColumn id="13" name="SellPrise" dataDxfId="13"/>
+    <tableColumn id="14" name="Function"/>
+    <tableColumn id="15" name="Param"/>
+    <tableColumn id="16" name="列1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1565,157 +1928,177 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.287037037037" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="16.287037037037" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="2" width="11" style="2" customWidth="1"/>
     <col min="3" max="3" width="22.5740740740741" style="2" customWidth="1"/>
-    <col min="4" max="4" width="36.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="36.4444444444444" style="3" customWidth="1"/>
     <col min="5" max="5" width="19.8518518518519" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.7777777777778" customWidth="1"/>
-    <col min="7" max="7" width="17.5555555555556" style="3" customWidth="1"/>
-    <col min="8" max="10" width="16.287037037037" style="4"/>
-    <col min="11" max="11" width="20.2222222222222" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="16.287037037037" style="4"/>
+    <col min="6" max="6" width="13.7777777777778" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.5555555555556" style="4" customWidth="1"/>
+    <col min="8" max="10" width="16.287037037037" style="5"/>
+    <col min="11" max="11" width="20.2222222222222" style="5" customWidth="1"/>
+    <col min="12" max="12" width="16.287037037037" style="5"/>
+    <col min="13" max="13" width="18.9259259259259" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="16.287037037037" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4" t="s">
+    <row r="1" customHeight="1" spans="1:16">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="2:15">
+      <c r="O1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="2:17">
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="K2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="6" t="s">
+    </row>
+    <row r="3" customHeight="1" spans="1:17">
+      <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="E3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="F3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="G3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="L3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="M3" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="13.2" spans="1:14">
+      <c r="N3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:16">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1723,43 +2106,46 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
+        <v>39</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
         <v>200</v>
       </c>
-      <c r="J4" s="1">
+      <c r="L4" s="1">
         <v>99</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="1">
         <v>100</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="13.2" spans="1:14">
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:16">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1767,43 +2153,46 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
         <v>200</v>
       </c>
-      <c r="J5" s="1">
+      <c r="L5" s="1">
         <v>99</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="1">
         <v>100</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="13.2" spans="1:14">
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:16">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1811,43 +2200,46 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>5</v>
-      </c>
-      <c r="I6" s="1">
+        <v>48</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>5</v>
+      </c>
+      <c r="K6" s="1">
         <v>200</v>
       </c>
-      <c r="J6" s="1">
+      <c r="L6" s="1">
         <v>99</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="1">
         <v>100</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="13.2" spans="1:14">
+      <c r="O6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:16">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1855,43 +2247,46 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>5</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>5</v>
+      </c>
+      <c r="K7" s="1">
         <v>200</v>
       </c>
-      <c r="J7" s="1">
+      <c r="L7" s="1">
         <v>99</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="1">
         <v>100</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="13.2" spans="1:13">
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:15">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1899,37 +2294,40 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
+        <v>38</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
         <v>0</v>
       </c>
-      <c r="J8" s="1">
+      <c r="L8" s="1">
         <v>99</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1</v>
-      </c>
       <c r="M8" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="13.2" spans="1:12">
+        <v>57</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1937,32 +2335,34 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>56</v>
+        <v>59</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1">
+        <v>61</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
         <v>0</v>
       </c>
-      <c r="J9" s="1">
+      <c r="L9" s="1">
         <v>500</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="M9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:16">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1970,40 +2370,43 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4">
+        <v>38</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5">
         <v>0</v>
       </c>
-      <c r="J10" s="4">
+      <c r="L10" s="5">
         <v>10</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L10" s="4">
-        <v>1</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="N10" s="4">
+      <c r="M10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N10" s="5">
+        <v>1</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="5">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" customHeight="1" spans="1:16">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -2011,40 +2414,43 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5">
         <v>0</v>
       </c>
-      <c r="J11" s="4">
+      <c r="L11" s="5">
         <v>10</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L11" s="4">
-        <v>1</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="N11" s="4">
+      <c r="M11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N11" s="5">
+        <v>1</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" s="5">
         <v>10000</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" customHeight="1" spans="1:15">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -2052,37 +2458,40 @@
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4">
+        <v>38</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="4">
+        <v>10</v>
+      </c>
+      <c r="I12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5">
         <v>0</v>
       </c>
-      <c r="J12" s="4">
-        <v>1</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L12" s="4">
-        <v>1</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="L12" s="5">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N12" s="5">
+        <v>1</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:16">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -2090,37 +2499,1636 @@
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>73</v>
+        <v>76</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4">
+        <v>38</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5">
         <v>0</v>
       </c>
-      <c r="J13" s="4">
-        <v>1</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="4">
-        <v>1</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="N13" s="4">
-        <v>1</v>
+      <c r="L13" s="5">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N13" s="5">
+        <v>1</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:14">
+      <c r="A14" s="12">
+        <v>1001</v>
+      </c>
+      <c r="B14" s="12">
+        <v>1001</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5">
+        <v>1</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="N14" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:14">
+      <c r="A15" s="12">
+        <v>1002</v>
+      </c>
+      <c r="B15" s="12">
+        <v>1002</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5">
+        <v>1</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="N15" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:14">
+      <c r="A16" s="12">
+        <v>1003</v>
+      </c>
+      <c r="B16" s="12">
+        <v>1003</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5">
+        <v>1</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="N16" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:14">
+      <c r="A17" s="12">
+        <v>1004</v>
+      </c>
+      <c r="B17" s="12">
+        <v>1004</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5">
+        <v>1</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="N17" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:14">
+      <c r="A18" s="12">
+        <v>1005</v>
+      </c>
+      <c r="B18" s="12">
+        <v>1005</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5">
+        <v>1</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="N18" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:14">
+      <c r="A19" s="12">
+        <v>1006</v>
+      </c>
+      <c r="B19" s="12">
+        <v>1006</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5">
+        <v>1</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="N19" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:14">
+      <c r="A20" s="12">
+        <v>1007</v>
+      </c>
+      <c r="B20" s="12">
+        <v>1007</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5">
+        <v>1</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="N20" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:14">
+      <c r="A21" s="12">
+        <v>2001</v>
+      </c>
+      <c r="B21" s="12">
+        <v>2001</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5">
+        <v>1</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="N21" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:14">
+      <c r="A22" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B22" s="12">
+        <v>2002</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5">
+        <v>1</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="N22" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:14">
+      <c r="A23" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B23" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5">
+        <v>1</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="N23" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:14">
+      <c r="A24" s="12">
+        <v>2004</v>
+      </c>
+      <c r="B24" s="12">
+        <v>2004</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5">
+        <v>1</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="N24" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:14">
+      <c r="A25" s="12">
+        <v>2005</v>
+      </c>
+      <c r="B25" s="12">
+        <v>2005</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5">
+        <v>1</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="N25" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:14">
+      <c r="A26" s="12">
+        <v>2006</v>
+      </c>
+      <c r="B26" s="12">
+        <v>2006</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5">
+        <v>1</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="N26" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:14">
+      <c r="A27" s="12">
+        <v>2007</v>
+      </c>
+      <c r="B27" s="12">
+        <v>2007</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5">
+        <v>1</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N27" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:14">
+      <c r="A28" s="12">
+        <v>3001</v>
+      </c>
+      <c r="B28" s="12">
+        <v>3001</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5">
+        <v>1</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="N28" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:14">
+      <c r="A29" s="12">
+        <v>3002</v>
+      </c>
+      <c r="B29" s="12">
+        <v>3002</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5">
+        <v>1</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="N29" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:14">
+      <c r="A30" s="12">
+        <v>3003</v>
+      </c>
+      <c r="B30" s="12">
+        <v>3003</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5">
+        <v>1</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="N30" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:14">
+      <c r="A31" s="12">
+        <v>3004</v>
+      </c>
+      <c r="B31" s="12">
+        <v>3004</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5">
+        <v>1</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="N31" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:14">
+      <c r="A32" s="12">
+        <v>3005</v>
+      </c>
+      <c r="B32" s="12">
+        <v>3005</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5">
+        <v>1</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="N32" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:14">
+      <c r="A33" s="12">
+        <v>3006</v>
+      </c>
+      <c r="B33" s="12">
+        <v>3006</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5">
+        <v>1</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="N33" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:14">
+      <c r="A34" s="12">
+        <v>3007</v>
+      </c>
+      <c r="B34" s="12">
+        <v>3007</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" s="4">
+        <v>1</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5">
+        <v>1</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="N34" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:14">
+      <c r="A35" s="12">
+        <v>1011</v>
+      </c>
+      <c r="B35" s="12">
+        <v>1011</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G35" s="4">
+        <v>10</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5">
+        <v>1</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="N35" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:14">
+      <c r="A36" s="12">
+        <v>1012</v>
+      </c>
+      <c r="B36" s="12">
+        <v>1012</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G36" s="4">
+        <v>10</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5">
+        <v>1</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="N36" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:14">
+      <c r="A37" s="12">
+        <v>1013</v>
+      </c>
+      <c r="B37" s="12">
+        <v>1013</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G37" s="4">
+        <v>10</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5">
+        <v>1</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="N37" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:14">
+      <c r="A38" s="12">
+        <v>1014</v>
+      </c>
+      <c r="B38" s="12">
+        <v>1014</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G38" s="4">
+        <v>10</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5">
+        <v>1</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="N38" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:14">
+      <c r="A39" s="12">
+        <v>1015</v>
+      </c>
+      <c r="B39" s="12">
+        <v>1015</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G39" s="4">
+        <v>10</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5">
+        <v>1</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="N39" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:14">
+      <c r="A40" s="12">
+        <v>1016</v>
+      </c>
+      <c r="B40" s="12">
+        <v>1016</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G40" s="4">
+        <v>10</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5">
+        <v>1</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="N40" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:14">
+      <c r="A41" s="12">
+        <v>1017</v>
+      </c>
+      <c r="B41" s="12">
+        <v>1017</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G41" s="4">
+        <v>10</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5">
+        <v>1</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="N41" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:14">
+      <c r="A42" s="12">
+        <v>2011</v>
+      </c>
+      <c r="B42" s="12">
+        <v>2011</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G42" s="4">
+        <v>10</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5">
+        <v>1</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="N42" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:14">
+      <c r="A43" s="12">
+        <v>2012</v>
+      </c>
+      <c r="B43" s="12">
+        <v>2012</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G43" s="4">
+        <v>10</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5">
+        <v>1</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="N43" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:14">
+      <c r="A44" s="12">
+        <v>2013</v>
+      </c>
+      <c r="B44" s="12">
+        <v>2013</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G44" s="4">
+        <v>10</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5">
+        <v>1</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="N44" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:14">
+      <c r="A45" s="12">
+        <v>2014</v>
+      </c>
+      <c r="B45" s="12">
+        <v>2014</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G45" s="4">
+        <v>10</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5">
+        <v>1</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="N45" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:14">
+      <c r="A46" s="12">
+        <v>2015</v>
+      </c>
+      <c r="B46" s="12">
+        <v>2015</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G46" s="4">
+        <v>10</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5">
+        <v>1</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="N46" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:14">
+      <c r="A47" s="12">
+        <v>2016</v>
+      </c>
+      <c r="B47" s="12">
+        <v>2016</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G47" s="4">
+        <v>10</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5">
+        <v>1</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="N47" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:14">
+      <c r="A48" s="12">
+        <v>2017</v>
+      </c>
+      <c r="B48" s="12">
+        <v>2017</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G48" s="4">
+        <v>10</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5">
+        <v>1</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="N48" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:14">
+      <c r="A49" s="12">
+        <v>3011</v>
+      </c>
+      <c r="B49" s="12">
+        <v>3011</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G49" s="4">
+        <v>10</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5">
+        <v>1</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N49" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:14">
+      <c r="A50" s="12">
+        <v>3012</v>
+      </c>
+      <c r="B50" s="12">
+        <v>3012</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G50" s="4">
+        <v>10</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5">
+        <v>1</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="N50" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:14">
+      <c r="A51" s="12">
+        <v>3013</v>
+      </c>
+      <c r="B51" s="12">
+        <v>3013</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G51" s="4">
+        <v>10</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5">
+        <v>1</v>
+      </c>
+      <c r="M51" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="N51" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:14">
+      <c r="A52" s="12">
+        <v>3014</v>
+      </c>
+      <c r="B52" s="12">
+        <v>3014</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G52" s="4">
+        <v>10</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5">
+        <v>1</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="N52" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:14">
+      <c r="A53" s="12">
+        <v>3015</v>
+      </c>
+      <c r="B53" s="12">
+        <v>3015</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G53" s="4">
+        <v>10</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5">
+        <v>1</v>
+      </c>
+      <c r="M53" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N53" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:14">
+      <c r="A54" s="12">
+        <v>3016</v>
+      </c>
+      <c r="B54" s="12">
+        <v>3016</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G54" s="4">
+        <v>10</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5">
+        <v>1</v>
+      </c>
+      <c r="M54" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="N54" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:14">
+      <c r="A55" s="12">
+        <v>3017</v>
+      </c>
+      <c r="B55" s="12">
+        <v>3017</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G55" s="4">
+        <v>10</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5">
+        <v>1</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="N55" s="5">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Src/Data/Tables/ItemDefine.xlsx
+++ b/Src/Data/Tables/ItemDefine.xlsx
@@ -341,7 +341,7 @@
     <t>WIZARD</t>
   </si>
   <si>
-    <t>UI/Items/equip/2001</t>
+    <t>UI/Items/equip2001</t>
   </si>
   <si>
     <t>牛皮法典</t>
@@ -350,7 +350,7 @@
     <t>"最健壮的牛皮所制"</t>
   </si>
   <si>
-    <t>UI/Items/equip/2002</t>
+    <t>UI/Items/equip2002</t>
   </si>
   <si>
     <t>布巾</t>
@@ -359,31 +359,31 @@
     <t>"采用上等布料，上等工艺"</t>
   </si>
   <si>
-    <t>UI/Items/equip/2003</t>
+    <t>UI/Items/equip2003</t>
   </si>
   <si>
     <t>布衣</t>
   </si>
   <si>
-    <t>UI/Items/equip/2004</t>
+    <t>UI/Items/equip2004</t>
   </si>
   <si>
     <t>布肩</t>
   </si>
   <si>
-    <t>UI/Items/equip/2005</t>
+    <t>UI/Items/equip2005</t>
   </si>
   <si>
     <t>布裤</t>
   </si>
   <si>
-    <t>UI/Items/equip/2006</t>
+    <t>UI/Items/equip2006</t>
   </si>
   <si>
     <t>布靴</t>
   </si>
   <si>
-    <t>UI/Items/equip/2007</t>
+    <t>UI/Items/equip2007</t>
   </si>
   <si>
     <t>木弓</t>
@@ -395,7 +395,7 @@
     <t>ARCHER</t>
   </si>
   <si>
-    <t>UI/Items/equip/3001</t>
+    <t>UI/Items/equip3001</t>
   </si>
   <si>
     <t>皮箭袋</t>
@@ -404,37 +404,37 @@
     <t>"顶级野兽皮革所制"</t>
   </si>
   <si>
-    <t>UI/Items/equip/3002</t>
+    <t>UI/Items/equip3002</t>
   </si>
   <si>
     <t>皮帽</t>
   </si>
   <si>
-    <t>UI/Items/equip/3003</t>
+    <t>UI/Items/equip3003</t>
   </si>
   <si>
     <t>皮衣</t>
   </si>
   <si>
-    <t>UI/Items/equip/3004</t>
+    <t>UI/Items/equip3004</t>
   </si>
   <si>
     <t>皮肩</t>
   </si>
   <si>
-    <t>UI/Items/equip/3005</t>
+    <t>UI/Items/equip3005</t>
   </si>
   <si>
     <t>皮裤</t>
   </si>
   <si>
-    <t>UI/Items/equip/3006</t>
+    <t>UI/Items/equip3006</t>
   </si>
   <si>
     <t>皮靴</t>
   </si>
   <si>
-    <t>UI/Items/equip/3007</t>
+    <t>UI/Items/equip3007</t>
   </si>
   <si>
     <t>星辰之剑</t>
@@ -443,43 +443,43 @@
     <t>"星辰之力，孕育其中"</t>
   </si>
   <si>
-    <t>UI/Items/equip/1011</t>
+    <t>UI/Items/equip1011</t>
   </si>
   <si>
     <t>星辰护盾</t>
   </si>
   <si>
-    <t>UI/Items/equip/1012</t>
+    <t>UI/Items/equip1012</t>
   </si>
   <si>
     <t>星辰头盔</t>
   </si>
   <si>
-    <t>UI/Items/equip/1013</t>
+    <t>UI/Items/equip1013</t>
   </si>
   <si>
     <t>星辰胸甲</t>
   </si>
   <si>
-    <t>UI/Items/equip/1014</t>
+    <t>UI/Items/equip1014</t>
   </si>
   <si>
     <t>星辰肩甲</t>
   </si>
   <si>
-    <t>UI/Items/equip/1015</t>
+    <t>UI/Items/equip1015</t>
   </si>
   <si>
     <t>星辰腿甲</t>
   </si>
   <si>
-    <t>UI/Items/equip/1016</t>
+    <t>UI/Items/equip1016</t>
   </si>
   <si>
     <t>星辰靴子</t>
   </si>
   <si>
-    <t>UI/Items/equip/1017</t>
+    <t>UI/Items/equip1017</t>
   </si>
   <si>
     <t>逐日法杖</t>
@@ -488,43 +488,43 @@
     <t>"拥有太阳的力量"</t>
   </si>
   <si>
-    <t>UI/Items/equip/2011</t>
+    <t>UI/Items/equip2011</t>
   </si>
   <si>
     <t>逐日法典</t>
   </si>
   <si>
-    <t>UI/Items/equip/2012</t>
+    <t>UI/Items/equip2012</t>
   </si>
   <si>
     <t>逐日头盔</t>
   </si>
   <si>
-    <t>UI/Items/equip/2013</t>
+    <t>UI/Items/equip2013</t>
   </si>
   <si>
     <t>逐日胸甲</t>
   </si>
   <si>
-    <t>UI/Items/equip/2014</t>
+    <t>UI/Items/equip2014</t>
   </si>
   <si>
     <t>逐日肩甲</t>
   </si>
   <si>
-    <t>UI/Items/equip/2015</t>
+    <t>UI/Items/equip2015</t>
   </si>
   <si>
     <t>逐日腿甲</t>
   </si>
   <si>
-    <t>UI/Items/equip/2016</t>
+    <t>UI/Items/equip2016</t>
   </si>
   <si>
     <t>逐日靴子</t>
   </si>
   <si>
-    <t>UI/Items/equip/2017</t>
+    <t>UI/Items/equip2017</t>
   </si>
   <si>
     <t>伴月长弓</t>
@@ -533,43 +533,43 @@
     <t>"月亮女神赐予"</t>
   </si>
   <si>
-    <t>UI/Items/equip/3011</t>
+    <t>UI/Items/equip3011</t>
   </si>
   <si>
     <t>伴月箭袋</t>
   </si>
   <si>
-    <t>UI/Items/equip/3012</t>
+    <t>UI/Items/equip3012</t>
   </si>
   <si>
     <t>伴月头盔</t>
   </si>
   <si>
-    <t>UI/Items/equip/3013</t>
+    <t>UI/Items/equip3013</t>
   </si>
   <si>
     <t>伴月胸甲</t>
   </si>
   <si>
-    <t>UI/Items/equip/3014</t>
+    <t>UI/Items/equip3014</t>
   </si>
   <si>
     <t>伴月肩甲</t>
   </si>
   <si>
-    <t>UI/Items/equip/3015</t>
+    <t>UI/Items/equip3015</t>
   </si>
   <si>
     <t>伴月腿甲</t>
   </si>
   <si>
-    <t>UI/Items/equip/3016</t>
+    <t>UI/Items/equip3016</t>
   </si>
   <si>
     <t>伴月靴子</t>
   </si>
   <si>
-    <t>UI/Items/equip/3017</t>
+    <t>UI/Items/equip3017</t>
   </si>
 </sst>
 </file>
@@ -1287,7 +1287,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1299,9 +1299,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1310,23 +1307,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1398,7 +1380,7 @@
     <cellStyle name="好 2" xfId="59"/>
     <cellStyle name="适中 2" xfId="60"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="17">
     <dxf>
       <font>
         <name val="微软雅黑"/>
@@ -1605,6 +1587,51 @@
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1633,9 +1660,9 @@
     <tableColumn id="11" name="StackLimit" dataDxfId="11"/>
     <tableColumn id="12" name="Icon" dataDxfId="12"/>
     <tableColumn id="13" name="SellPrise" dataDxfId="13"/>
-    <tableColumn id="14" name="Function"/>
-    <tableColumn id="15" name="Param"/>
-    <tableColumn id="16" name="列1"/>
+    <tableColumn id="14" name="Function" dataDxfId="14"/>
+    <tableColumn id="15" name="Param" dataDxfId="15"/>
+    <tableColumn id="16" name="列1" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1930,8 +1957,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="E28" workbookViewId="0">
+      <selection activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.287037037037" defaultRowHeight="13.2"/>
@@ -1941,57 +1968,57 @@
     <col min="4" max="4" width="36.4444444444444" style="3" customWidth="1"/>
     <col min="5" max="5" width="19.8518518518519" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.7777777777778" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.5555555555556" style="4" customWidth="1"/>
-    <col min="8" max="10" width="16.287037037037" style="5"/>
-    <col min="11" max="11" width="20.2222222222222" style="5" customWidth="1"/>
-    <col min="12" max="12" width="16.287037037037" style="5"/>
-    <col min="13" max="13" width="18.9259259259259" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="16.287037037037" style="5"/>
+    <col min="7" max="7" width="17.5555555555556" style="2" customWidth="1"/>
+    <col min="8" max="10" width="16.287037037037" style="4"/>
+    <col min="11" max="11" width="20.2222222222222" style="4" customWidth="1"/>
+    <col min="12" max="12" width="16.287037037037" style="4"/>
+    <col min="13" max="13" width="18.9259259259259" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="16.287037037037" style="4"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:16">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2014,87 +2041,87 @@
       <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:17">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2202,7 +2229,7 @@
       <c r="C6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="7" t="s">
         <v>47</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -2249,7 +2276,7 @@
       <c r="C7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="7" t="s">
         <v>52</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -2296,13 +2323,13 @@
       <c r="C8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="7" t="s">
         <v>55</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>56</v>
       </c>
       <c r="G8" s="1">
@@ -2337,13 +2364,13 @@
       <c r="C9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>62</v>
       </c>
       <c r="G9" s="1">
@@ -2372,37 +2399,37 @@
       <c r="C10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="7" t="s">
         <v>65</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="2">
         <v>1</v>
       </c>
       <c r="I10" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <v>0</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="4">
         <v>10</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N10" s="5">
-        <v>1</v>
-      </c>
-      <c r="O10" s="5" t="s">
+      <c r="N10" s="4">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="4">
         <v>1000</v>
       </c>
     </row>
@@ -2416,37 +2443,37 @@
       <c r="C11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="8" t="s">
         <v>69</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="2">
         <v>1</v>
       </c>
       <c r="I11" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>0</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="4">
         <v>10</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="N11" s="5">
-        <v>1</v>
-      </c>
-      <c r="O11" s="5" t="s">
+      <c r="N11" s="4">
+        <v>1</v>
+      </c>
+      <c r="O11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P11" s="4">
         <v>10000</v>
       </c>
     </row>
@@ -2460,34 +2487,34 @@
       <c r="C12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="2">
         <v>10</v>
       </c>
       <c r="I12" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>0</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="4">
         <v>1</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="N12" s="5">
-        <v>1</v>
-      </c>
-      <c r="O12" s="5" t="s">
+      <c r="N12" s="4">
+        <v>1</v>
+      </c>
+      <c r="O12" s="4" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2501,1633 +2528,1633 @@
       <c r="C13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="8" t="s">
         <v>77</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="2">
         <v>1</v>
       </c>
       <c r="I13" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <v>0</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="4">
         <v>1</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="N13" s="5">
-        <v>1</v>
-      </c>
-      <c r="O13" s="5" t="s">
+      <c r="N13" s="4">
+        <v>1</v>
+      </c>
+      <c r="O13" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P13" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:14">
-      <c r="A14" s="12">
+      <c r="A14" s="2">
         <v>1001</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="2">
         <v>1001</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="8" t="s">
         <v>81</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="G14" s="4">
-        <v>1</v>
-      </c>
-      <c r="H14" s="5" t="s">
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5">
-        <v>1</v>
-      </c>
-      <c r="M14" s="5" t="s">
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4">
+        <v>1</v>
+      </c>
+      <c r="M14" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:14">
-      <c r="A15" s="12">
+      <c r="A15" s="2">
         <v>1002</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="2">
         <v>1002</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="8" t="s">
         <v>87</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G15" s="4">
-        <v>1</v>
-      </c>
-      <c r="H15" s="5" t="s">
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5">
-        <v>1</v>
-      </c>
-      <c r="M15" s="5" t="s">
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4">
+        <v>1</v>
+      </c>
+      <c r="M15" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:14">
-      <c r="A16" s="12">
+      <c r="A16" s="2">
         <v>1003</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="2">
         <v>1003</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="8" t="s">
         <v>87</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G16" s="4">
-        <v>1</v>
-      </c>
-      <c r="H16" s="5" t="s">
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5">
-        <v>1</v>
-      </c>
-      <c r="M16" s="5" t="s">
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4">
+        <v>1</v>
+      </c>
+      <c r="M16" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:14">
-      <c r="A17" s="12">
+      <c r="A17" s="2">
         <v>1004</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="2">
         <v>1004</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="8" t="s">
         <v>87</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G17" s="4">
-        <v>1</v>
-      </c>
-      <c r="H17" s="5" t="s">
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5">
-        <v>1</v>
-      </c>
-      <c r="M17" s="5" t="s">
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4">
+        <v>1</v>
+      </c>
+      <c r="M17" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:14">
-      <c r="A18" s="12">
+      <c r="A18" s="2">
         <v>1005</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="2">
         <v>1005</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="8" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G18" s="4">
-        <v>1</v>
-      </c>
-      <c r="H18" s="5" t="s">
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5">
-        <v>1</v>
-      </c>
-      <c r="M18" s="5" t="s">
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4">
+        <v>1</v>
+      </c>
+      <c r="M18" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:14">
-      <c r="A19" s="12">
+      <c r="A19" s="2">
         <v>1006</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="2">
         <v>1006</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="8" t="s">
         <v>87</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G19" s="4">
-        <v>1</v>
-      </c>
-      <c r="H19" s="5" t="s">
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5">
-        <v>1</v>
-      </c>
-      <c r="M19" s="5" t="s">
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4">
+        <v>1</v>
+      </c>
+      <c r="M19" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:14">
-      <c r="A20" s="12">
+      <c r="A20" s="2">
         <v>1007</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="2">
         <v>1007</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="8" t="s">
         <v>87</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G20" s="4">
-        <v>1</v>
-      </c>
-      <c r="H20" s="5" t="s">
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5">
-        <v>1</v>
-      </c>
-      <c r="M20" s="5" t="s">
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4">
+        <v>1</v>
+      </c>
+      <c r="M20" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="N20" s="5">
+      <c r="N20" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:14">
-      <c r="A21" s="12">
+      <c r="A21" s="2">
         <v>2001</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="2">
         <v>2001</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="8" t="s">
         <v>102</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="G21" s="4">
-        <v>1</v>
-      </c>
-      <c r="H21" s="5" t="s">
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5">
-        <v>1</v>
-      </c>
-      <c r="M21" s="5" t="s">
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4">
+        <v>1</v>
+      </c>
+      <c r="M21" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N21" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:14">
-      <c r="A22" s="12">
+      <c r="A22" s="2">
         <v>2002</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="2">
         <v>2002</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="8" t="s">
         <v>106</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G22" s="4">
-        <v>1</v>
-      </c>
-      <c r="H22" s="5" t="s">
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5">
-        <v>1</v>
-      </c>
-      <c r="M22" s="5" t="s">
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4">
+        <v>1</v>
+      </c>
+      <c r="M22" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N22" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:14">
-      <c r="A23" s="12">
+      <c r="A23" s="2">
         <v>2003</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="2">
         <v>2003</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="8" t="s">
         <v>109</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G23" s="4">
-        <v>1</v>
-      </c>
-      <c r="H23" s="5" t="s">
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5">
-        <v>1</v>
-      </c>
-      <c r="M23" s="5" t="s">
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4">
+        <v>1</v>
+      </c>
+      <c r="M23" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="N23" s="5">
+      <c r="N23" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:14">
-      <c r="A24" s="12">
+      <c r="A24" s="2">
         <v>2004</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="2">
         <v>2004</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="8" t="s">
         <v>109</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G24" s="4">
-        <v>1</v>
-      </c>
-      <c r="H24" s="5" t="s">
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5">
-        <v>1</v>
-      </c>
-      <c r="M24" s="5" t="s">
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4">
+        <v>1</v>
+      </c>
+      <c r="M24" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="N24" s="5">
+      <c r="N24" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:14">
-      <c r="A25" s="12">
+      <c r="A25" s="2">
         <v>2005</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="2">
         <v>2005</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="8" t="s">
         <v>109</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G25" s="4">
-        <v>1</v>
-      </c>
-      <c r="H25" s="5" t="s">
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5">
-        <v>1</v>
-      </c>
-      <c r="M25" s="5" t="s">
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4">
+        <v>1</v>
+      </c>
+      <c r="M25" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="N25" s="5">
+      <c r="N25" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:14">
-      <c r="A26" s="12">
+      <c r="A26" s="2">
         <v>2006</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="2">
         <v>2006</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="8" t="s">
         <v>109</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G26" s="4">
-        <v>1</v>
-      </c>
-      <c r="H26" s="5" t="s">
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5">
-        <v>1</v>
-      </c>
-      <c r="M26" s="5" t="s">
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4">
+        <v>1</v>
+      </c>
+      <c r="M26" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="N26" s="5">
+      <c r="N26" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:14">
-      <c r="A27" s="12">
+      <c r="A27" s="2">
         <v>2007</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="2">
         <v>2007</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="8" t="s">
         <v>109</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G27" s="4">
-        <v>1</v>
-      </c>
-      <c r="H27" s="5" t="s">
+      <c r="G27" s="2">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5">
-        <v>1</v>
-      </c>
-      <c r="M27" s="5" t="s">
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4">
+        <v>1</v>
+      </c>
+      <c r="M27" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="N27" s="5">
+      <c r="N27" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:14">
-      <c r="A28" s="12">
+      <c r="A28" s="2">
         <v>3001</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="2">
         <v>3001</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="8" t="s">
         <v>120</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="G28" s="4">
-        <v>1</v>
-      </c>
-      <c r="H28" s="5" t="s">
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5">
-        <v>1</v>
-      </c>
-      <c r="M28" s="5" t="s">
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4">
+        <v>1</v>
+      </c>
+      <c r="M28" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="N28" s="5">
+      <c r="N28" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:14">
-      <c r="A29" s="12">
+      <c r="A29" s="2">
         <v>3002</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="2">
         <v>3002</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="8" t="s">
         <v>124</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G29" s="4">
-        <v>1</v>
-      </c>
-      <c r="H29" s="5" t="s">
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5">
-        <v>1</v>
-      </c>
-      <c r="M29" s="5" t="s">
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4">
+        <v>1</v>
+      </c>
+      <c r="M29" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="N29" s="5">
+      <c r="N29" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:14">
-      <c r="A30" s="12">
+      <c r="A30" s="2">
         <v>3003</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="2">
         <v>3003</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="8" t="s">
         <v>124</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G30" s="4">
-        <v>1</v>
-      </c>
-      <c r="H30" s="5" t="s">
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+      <c r="H30" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5">
-        <v>1</v>
-      </c>
-      <c r="M30" s="5" t="s">
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4">
+        <v>1</v>
+      </c>
+      <c r="M30" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="N30" s="5">
+      <c r="N30" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:14">
-      <c r="A31" s="12">
+      <c r="A31" s="2">
         <v>3004</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="2">
         <v>3004</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="8" t="s">
         <v>124</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G31" s="4">
-        <v>1</v>
-      </c>
-      <c r="H31" s="5" t="s">
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5">
-        <v>1</v>
-      </c>
-      <c r="M31" s="5" t="s">
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4">
+        <v>1</v>
+      </c>
+      <c r="M31" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="N31" s="5">
+      <c r="N31" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:14">
-      <c r="A32" s="12">
+      <c r="A32" s="2">
         <v>3005</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="2">
         <v>3005</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="8" t="s">
         <v>124</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G32" s="4">
-        <v>1</v>
-      </c>
-      <c r="H32" s="5" t="s">
+      <c r="G32" s="2">
+        <v>1</v>
+      </c>
+      <c r="H32" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5">
-        <v>1</v>
-      </c>
-      <c r="M32" s="5" t="s">
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4">
+        <v>1</v>
+      </c>
+      <c r="M32" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="N32" s="5">
+      <c r="N32" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:14">
-      <c r="A33" s="12">
+      <c r="A33" s="2">
         <v>3006</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="2">
         <v>3006</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="8" t="s">
         <v>124</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G33" s="4">
-        <v>1</v>
-      </c>
-      <c r="H33" s="5" t="s">
+      <c r="G33" s="2">
+        <v>1</v>
+      </c>
+      <c r="H33" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5">
-        <v>1</v>
-      </c>
-      <c r="M33" s="5" t="s">
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4">
+        <v>1</v>
+      </c>
+      <c r="M33" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="N33" s="5">
+      <c r="N33" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:14">
-      <c r="A34" s="12">
+      <c r="A34" s="2">
         <v>3007</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="2">
         <v>3007</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="8" t="s">
         <v>124</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="F34" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G34" s="4">
-        <v>1</v>
-      </c>
-      <c r="H34" s="5" t="s">
+      <c r="G34" s="2">
+        <v>1</v>
+      </c>
+      <c r="H34" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5">
-        <v>1</v>
-      </c>
-      <c r="M34" s="5" t="s">
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4">
+        <v>1</v>
+      </c>
+      <c r="M34" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="N34" s="5">
+      <c r="N34" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:14">
-      <c r="A35" s="12">
+      <c r="A35" s="2">
         <v>1011</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="2">
         <v>1011</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="8" t="s">
         <v>137</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F35" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="2">
         <v>10</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5">
-        <v>1</v>
-      </c>
-      <c r="M35" s="5" t="s">
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4">
+        <v>1</v>
+      </c>
+      <c r="M35" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="N35" s="5">
+      <c r="N35" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:14">
-      <c r="A36" s="12">
+      <c r="A36" s="2">
         <v>1012</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="2">
         <v>1012</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="8" t="s">
         <v>137</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="2">
         <v>10</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5">
-        <v>1</v>
-      </c>
-      <c r="M36" s="5" t="s">
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4">
+        <v>1</v>
+      </c>
+      <c r="M36" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="N36" s="5">
+      <c r="N36" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:14">
-      <c r="A37" s="12">
+      <c r="A37" s="2">
         <v>1013</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="2">
         <v>1013</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="8" t="s">
         <v>137</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F37" s="15" t="s">
+      <c r="F37" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="2">
         <v>10</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="H37" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5">
-        <v>1</v>
-      </c>
-      <c r="M37" s="5" t="s">
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4">
+        <v>1</v>
+      </c>
+      <c r="M37" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="N37" s="5">
+      <c r="N37" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:14">
-      <c r="A38" s="12">
+      <c r="A38" s="2">
         <v>1014</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B38" s="2">
         <v>1014</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="8" t="s">
         <v>137</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="F38" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="2">
         <v>10</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="H38" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5">
-        <v>1</v>
-      </c>
-      <c r="M38" s="5" t="s">
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4">
+        <v>1</v>
+      </c>
+      <c r="M38" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="N38" s="5">
+      <c r="N38" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:14">
-      <c r="A39" s="12">
+      <c r="A39" s="2">
         <v>1015</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="2">
         <v>1015</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="8" t="s">
         <v>137</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F39" s="15" t="s">
+      <c r="F39" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="2">
         <v>10</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H39" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5">
-        <v>1</v>
-      </c>
-      <c r="M39" s="5" t="s">
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4">
+        <v>1</v>
+      </c>
+      <c r="M39" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="N39" s="5">
+      <c r="N39" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:14">
-      <c r="A40" s="12">
+      <c r="A40" s="2">
         <v>1016</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="2">
         <v>1016</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="8" t="s">
         <v>137</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F40" s="15" t="s">
+      <c r="F40" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="2">
         <v>10</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H40" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5">
-        <v>1</v>
-      </c>
-      <c r="M40" s="5" t="s">
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4">
+        <v>1</v>
+      </c>
+      <c r="M40" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="N40" s="5">
+      <c r="N40" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:14">
-      <c r="A41" s="12">
+      <c r="A41" s="2">
         <v>1017</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="2">
         <v>1017</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="8" t="s">
         <v>137</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F41" s="15" t="s">
+      <c r="F41" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="2">
         <v>10</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H41" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5">
-        <v>1</v>
-      </c>
-      <c r="M41" s="5" t="s">
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4">
+        <v>1</v>
+      </c>
+      <c r="M41" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="N41" s="5">
+      <c r="N41" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:14">
-      <c r="A42" s="12">
+      <c r="A42" s="2">
         <v>2011</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="2">
         <v>2011</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="8" t="s">
         <v>152</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F42" s="15" t="s">
+      <c r="F42" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="2">
         <v>10</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H42" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5">
-        <v>1</v>
-      </c>
-      <c r="M42" s="5" t="s">
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4">
+        <v>1</v>
+      </c>
+      <c r="M42" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="N42" s="5">
+      <c r="N42" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:14">
-      <c r="A43" s="12">
+      <c r="A43" s="2">
         <v>2012</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B43" s="2">
         <v>2012</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="8" t="s">
         <v>152</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F43" s="15" t="s">
+      <c r="F43" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="2">
         <v>10</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="H43" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5">
-        <v>1</v>
-      </c>
-      <c r="M43" s="5" t="s">
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4">
+        <v>1</v>
+      </c>
+      <c r="M43" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="N43" s="5">
+      <c r="N43" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:14">
-      <c r="A44" s="12">
+      <c r="A44" s="2">
         <v>2013</v>
       </c>
-      <c r="B44" s="12">
+      <c r="B44" s="2">
         <v>2013</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="8" t="s">
         <v>152</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="F44" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="2">
         <v>10</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="H44" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5">
-        <v>1</v>
-      </c>
-      <c r="M44" s="5" t="s">
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4">
+        <v>1</v>
+      </c>
+      <c r="M44" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="N44" s="5">
+      <c r="N44" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:14">
-      <c r="A45" s="12">
+      <c r="A45" s="2">
         <v>2014</v>
       </c>
-      <c r="B45" s="12">
+      <c r="B45" s="2">
         <v>2014</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="8" t="s">
         <v>152</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F45" s="15" t="s">
+      <c r="F45" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="2">
         <v>10</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H45" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5">
-        <v>1</v>
-      </c>
-      <c r="M45" s="5" t="s">
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4">
+        <v>1</v>
+      </c>
+      <c r="M45" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="N45" s="5">
+      <c r="N45" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:14">
-      <c r="A46" s="12">
+      <c r="A46" s="2">
         <v>2015</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="2">
         <v>2015</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="8" t="s">
         <v>152</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F46" s="15" t="s">
+      <c r="F46" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="2">
         <v>10</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="H46" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5">
-        <v>1</v>
-      </c>
-      <c r="M46" s="5" t="s">
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4">
+        <v>1</v>
+      </c>
+      <c r="M46" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="N46" s="5">
+      <c r="N46" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:14">
-      <c r="A47" s="12">
+      <c r="A47" s="2">
         <v>2016</v>
       </c>
-      <c r="B47" s="12">
+      <c r="B47" s="2">
         <v>2016</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="8" t="s">
         <v>152</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F47" s="15" t="s">
+      <c r="F47" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="2">
         <v>10</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="H47" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5">
-        <v>1</v>
-      </c>
-      <c r="M47" s="5" t="s">
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4">
+        <v>1</v>
+      </c>
+      <c r="M47" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="N47" s="5">
+      <c r="N47" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:14">
-      <c r="A48" s="12">
+      <c r="A48" s="2">
         <v>2017</v>
       </c>
-      <c r="B48" s="12">
+      <c r="B48" s="2">
         <v>2017</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D48" s="8" t="s">
         <v>152</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F48" s="15" t="s">
+      <c r="F48" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="2">
         <v>10</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="H48" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5">
-        <v>1</v>
-      </c>
-      <c r="M48" s="5" t="s">
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4">
+        <v>1</v>
+      </c>
+      <c r="M48" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N48" s="5">
+      <c r="N48" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:14">
-      <c r="A49" s="12">
+      <c r="A49" s="2">
         <v>3011</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="2">
         <v>3011</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="8" t="s">
         <v>167</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F49" s="15" t="s">
+      <c r="F49" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="2">
         <v>10</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="H49" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5">
-        <v>1</v>
-      </c>
-      <c r="M49" s="5" t="s">
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4">
+        <v>1</v>
+      </c>
+      <c r="M49" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="N49" s="5">
+      <c r="N49" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:14">
-      <c r="A50" s="12">
+      <c r="A50" s="2">
         <v>3012</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="2">
         <v>3012</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="D50" s="8" t="s">
         <v>167</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F50" s="15" t="s">
+      <c r="F50" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50" s="2">
         <v>10</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="H50" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5">
-        <v>1</v>
-      </c>
-      <c r="M50" s="5" t="s">
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4">
+        <v>1</v>
+      </c>
+      <c r="M50" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="N50" s="5">
+      <c r="N50" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:14">
-      <c r="A51" s="12">
+      <c r="A51" s="2">
         <v>3013</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="2">
         <v>3013</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="8" t="s">
         <v>167</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F51" s="15" t="s">
+      <c r="F51" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="2">
         <v>10</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="H51" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5">
-        <v>1</v>
-      </c>
-      <c r="M51" s="5" t="s">
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4">
+        <v>1</v>
+      </c>
+      <c r="M51" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="N51" s="5">
+      <c r="N51" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:14">
-      <c r="A52" s="12">
+      <c r="A52" s="2">
         <v>3014</v>
       </c>
-      <c r="B52" s="12">
+      <c r="B52" s="2">
         <v>3014</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D52" s="8" t="s">
         <v>167</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F52" s="15" t="s">
+      <c r="F52" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="2">
         <v>10</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="H52" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5">
-        <v>1</v>
-      </c>
-      <c r="M52" s="5" t="s">
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4">
+        <v>1</v>
+      </c>
+      <c r="M52" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="N52" s="5">
+      <c r="N52" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:14">
-      <c r="A53" s="12">
+      <c r="A53" s="2">
         <v>3015</v>
       </c>
-      <c r="B53" s="12">
+      <c r="B53" s="2">
         <v>3015</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="D53" s="8" t="s">
         <v>167</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F53" s="15" t="s">
+      <c r="F53" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="2">
         <v>10</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="H53" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5">
-        <v>1</v>
-      </c>
-      <c r="M53" s="5" t="s">
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4">
+        <v>1</v>
+      </c>
+      <c r="M53" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="N53" s="5">
+      <c r="N53" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:14">
-      <c r="A54" s="12">
+      <c r="A54" s="2">
         <v>3016</v>
       </c>
-      <c r="B54" s="12">
+      <c r="B54" s="2">
         <v>3016</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="D54" s="8" t="s">
         <v>167</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F54" s="15" t="s">
+      <c r="F54" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G54" s="2">
         <v>10</v>
       </c>
-      <c r="H54" s="5" t="s">
+      <c r="H54" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5">
-        <v>1</v>
-      </c>
-      <c r="M54" s="5" t="s">
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4">
+        <v>1</v>
+      </c>
+      <c r="M54" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="N54" s="5">
+      <c r="N54" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:14">
-      <c r="A55" s="12">
+      <c r="A55" s="2">
         <v>3017</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B55" s="2">
         <v>3017</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="D55" s="8" t="s">
         <v>167</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F55" s="15" t="s">
+      <c r="F55" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="2">
         <v>10</v>
       </c>
-      <c r="H55" s="5" t="s">
+      <c r="H55" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5">
-        <v>1</v>
-      </c>
-      <c r="M55" s="5" t="s">
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4">
+        <v>1</v>
+      </c>
+      <c r="M55" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="N55" s="5">
+      <c r="N55" s="4">
         <v>5</v>
       </c>
     </row>

--- a/Src/Data/Tables/ItemDefine.xlsx
+++ b/Src/Data/Tables/ItemDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" updateLinks="always"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" tabRatio="599"/>
+    <workbookView windowWidth="21096" windowHeight="9815" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="Elements" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="192">
   <si>
     <t>名字</t>
   </si>
@@ -570,6 +570,39 @@
   </si>
   <si>
     <t>UI/Items/equip3017</t>
+  </si>
+  <si>
+    <t>冰原虎</t>
+  </si>
+  <si>
+    <t>冰原猛虎长期生活在遥远的极寒之地，刺骨寒风锻炼着它坚韧的品质。</t>
+  </si>
+  <si>
+    <t>RIDE</t>
+  </si>
+  <si>
+    <t>坐骑</t>
+  </si>
+  <si>
+    <t>UI/Items/ride8001</t>
+  </si>
+  <si>
+    <t>夜行虎</t>
+  </si>
+  <si>
+    <t>夜行虎昼伏夜出，它可以利用夜色遮掩自己的行迹，是名副其实的黑夜猎手。</t>
+  </si>
+  <si>
+    <t>UI/Items/ride8002</t>
+  </si>
+  <si>
+    <t>森林虎</t>
+  </si>
+  <si>
+    <t>森林湖长期生活在古老的森林中，是实至名归的万兽之王。</t>
+  </si>
+  <si>
+    <t>UI/Items/ride8003</t>
   </si>
 </sst>
 </file>
@@ -1287,7 +1320,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1315,6 +1348,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="61">
@@ -1643,8 +1685,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:Q55" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:Q55" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:Q58" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:Q58" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="17">
     <tableColumn id="1" name="Key" dataDxfId="0"/>
     <tableColumn id="3" name="ID" dataDxfId="1"/>
@@ -1955,10 +1997,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E28" workbookViewId="0">
-      <selection activeCell="M57" sqref="M57"/>
+    <sheetView tabSelected="1" topLeftCell="G31" workbookViewId="0">
+      <selection activeCell="M61" sqref="M61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.287037037037" defaultRowHeight="13.2"/>
@@ -2587,9 +2629,6 @@
       <c r="H14" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
       <c r="L14" s="4">
         <v>1</v>
       </c>
@@ -2625,9 +2664,6 @@
       <c r="H15" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
       <c r="L15" s="4">
         <v>1</v>
       </c>
@@ -2663,9 +2699,6 @@
       <c r="H16" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
       <c r="L16" s="4">
         <v>1</v>
       </c>
@@ -2701,9 +2734,6 @@
       <c r="H17" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
       <c r="L17" s="4">
         <v>1</v>
       </c>
@@ -2739,9 +2769,6 @@
       <c r="H18" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
       <c r="L18" s="4">
         <v>1</v>
       </c>
@@ -2777,9 +2804,6 @@
       <c r="H19" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
       <c r="L19" s="4">
         <v>1</v>
       </c>
@@ -2815,9 +2839,6 @@
       <c r="H20" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
       <c r="L20" s="4">
         <v>1</v>
       </c>
@@ -2853,9 +2874,6 @@
       <c r="H21" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
       <c r="L21" s="4">
         <v>1</v>
       </c>
@@ -2891,9 +2909,6 @@
       <c r="H22" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
       <c r="L22" s="4">
         <v>1</v>
       </c>
@@ -2929,9 +2944,6 @@
       <c r="H23" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
       <c r="L23" s="4">
         <v>1</v>
       </c>
@@ -2967,9 +2979,6 @@
       <c r="H24" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
       <c r="L24" s="4">
         <v>1</v>
       </c>
@@ -3005,9 +3014,6 @@
       <c r="H25" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
       <c r="L25" s="4">
         <v>1</v>
       </c>
@@ -3043,9 +3049,6 @@
       <c r="H26" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
       <c r="L26" s="4">
         <v>1</v>
       </c>
@@ -3081,9 +3084,6 @@
       <c r="H27" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
       <c r="L27" s="4">
         <v>1</v>
       </c>
@@ -3119,9 +3119,6 @@
       <c r="H28" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
       <c r="L28" s="4">
         <v>1</v>
       </c>
@@ -3157,9 +3154,6 @@
       <c r="H29" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
       <c r="L29" s="4">
         <v>1</v>
       </c>
@@ -3195,9 +3189,6 @@
       <c r="H30" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
       <c r="L30" s="4">
         <v>1</v>
       </c>
@@ -3233,9 +3224,6 @@
       <c r="H31" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
       <c r="L31" s="4">
         <v>1</v>
       </c>
@@ -3271,9 +3259,6 @@
       <c r="H32" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
       <c r="L32" s="4">
         <v>1</v>
       </c>
@@ -3309,9 +3294,6 @@
       <c r="H33" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
       <c r="L33" s="4">
         <v>1</v>
       </c>
@@ -3347,9 +3329,6 @@
       <c r="H34" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
       <c r="L34" s="4">
         <v>1</v>
       </c>
@@ -3385,9 +3364,6 @@
       <c r="H35" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
       <c r="L35" s="4">
         <v>1</v>
       </c>
@@ -3423,9 +3399,6 @@
       <c r="H36" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
       <c r="L36" s="4">
         <v>1</v>
       </c>
@@ -3461,9 +3434,6 @@
       <c r="H37" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
       <c r="L37" s="4">
         <v>1</v>
       </c>
@@ -3499,9 +3469,6 @@
       <c r="H38" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
       <c r="L38" s="4">
         <v>1</v>
       </c>
@@ -3537,9 +3504,6 @@
       <c r="H39" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
       <c r="L39" s="4">
         <v>1</v>
       </c>
@@ -3575,9 +3539,6 @@
       <c r="H40" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
       <c r="L40" s="4">
         <v>1</v>
       </c>
@@ -3613,9 +3574,6 @@
       <c r="H41" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
       <c r="L41" s="4">
         <v>1</v>
       </c>
@@ -3651,9 +3609,6 @@
       <c r="H42" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
       <c r="L42" s="4">
         <v>1</v>
       </c>
@@ -3689,9 +3644,6 @@
       <c r="H43" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
       <c r="L43" s="4">
         <v>1</v>
       </c>
@@ -3727,9 +3679,6 @@
       <c r="H44" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
       <c r="L44" s="4">
         <v>1</v>
       </c>
@@ -3765,9 +3714,6 @@
       <c r="H45" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
       <c r="L45" s="4">
         <v>1</v>
       </c>
@@ -3803,9 +3749,6 @@
       <c r="H46" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
       <c r="L46" s="4">
         <v>1</v>
       </c>
@@ -3841,9 +3784,6 @@
       <c r="H47" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
       <c r="L47" s="4">
         <v>1</v>
       </c>
@@ -3879,9 +3819,6 @@
       <c r="H48" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
       <c r="L48" s="4">
         <v>1</v>
       </c>
@@ -3917,9 +3854,6 @@
       <c r="H49" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
       <c r="L49" s="4">
         <v>1</v>
       </c>
@@ -3955,9 +3889,6 @@
       <c r="H50" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
       <c r="L50" s="4">
         <v>1</v>
       </c>
@@ -3993,9 +3924,6 @@
       <c r="H51" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
       <c r="L51" s="4">
         <v>1</v>
       </c>
@@ -4031,9 +3959,6 @@
       <c r="H52" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
       <c r="L52" s="4">
         <v>1</v>
       </c>
@@ -4069,9 +3994,6 @@
       <c r="H53" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
       <c r="L53" s="4">
         <v>1</v>
       </c>
@@ -4107,9 +4029,6 @@
       <c r="H54" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
       <c r="L54" s="4">
         <v>1</v>
       </c>
@@ -4145,9 +4064,6 @@
       <c r="H55" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
       <c r="L55" s="4">
         <v>1</v>
       </c>
@@ -4157,6 +4073,123 @@
       <c r="N55" s="4">
         <v>5</v>
       </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="2">
+        <v>8001</v>
+      </c>
+      <c r="B56" s="2">
+        <v>8001</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="G56" s="11">
+        <v>1</v>
+      </c>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12">
+        <v>1000</v>
+      </c>
+      <c r="L56" s="12">
+        <v>1</v>
+      </c>
+      <c r="M56" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="N56" s="12">
+        <v>500</v>
+      </c>
+      <c r="O56" s="2"/>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="2">
+        <v>8002</v>
+      </c>
+      <c r="B57" s="2">
+        <v>8002</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="G57" s="11">
+        <v>1</v>
+      </c>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12">
+        <v>1000</v>
+      </c>
+      <c r="L57" s="12">
+        <v>1</v>
+      </c>
+      <c r="M57" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="N57" s="12">
+        <v>500</v>
+      </c>
+      <c r="O57" s="2"/>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="2">
+        <v>8003</v>
+      </c>
+      <c r="B58" s="2">
+        <v>8003</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="G58" s="11">
+        <v>1</v>
+      </c>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12">
+        <v>1000</v>
+      </c>
+      <c r="L58" s="12">
+        <v>1</v>
+      </c>
+      <c r="M58" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="N58" s="12">
+        <v>500</v>
+      </c>
+      <c r="O58" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
